--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -663,7 +663,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -935,7 +939,11 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr"/>
+      <c r="C35" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -641,7 +641,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -704,7 +704,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -774,7 +778,11 @@
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr"/>
+      <c r="C20" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -870,11 +878,7 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C28" s="9" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -896,7 +900,11 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr"/>
+      <c r="C30" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Mingguan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD72F6D-67FB-4354-ABDC-EEF4A216FDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC51B752-42D4-4FCA-A930-1BB9C5D3899B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Tugas 1</t>
   </si>
   <si>
+    <t>Tugas 2</t>
+  </si>
+  <si>
     <t>MAT7</t>
+  </si>
+  <si>
+    <t>BINDO4</t>
   </si>
   <si>
     <t>Abu Abdirrahman Zenky</t>
@@ -172,12 +178,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -220,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +243,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:C37"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -534,356 +548,399 @@
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.6">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.6">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.6">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.6">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.6">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.6">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.6">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.6">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.6">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.6">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.6">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.6">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.6">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.6">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.6">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.6">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.6">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.6">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.6">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.6">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.6">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.6">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6">
+        <v>39</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.6">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -621,7 +621,11 @@
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr"/>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -636,7 +636,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -753,7 +757,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr"/>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -805,7 +813,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr"/>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -837,7 +849,11 @@
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
-      <c r="D17" s="15" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -933,7 +949,11 @@
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr"/>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="10" t="n">
@@ -1012,7 +1032,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr"/>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1045,7 +1069,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D30" s="15" t="inlineStr"/>
+      <c r="D30" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="10" t="n">
@@ -1056,7 +1084,11 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -1120,7 +1120,11 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="10" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -580,6 +580,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="12" t="n"/>
@@ -594,6 +599,11 @@
           <t>BINDO4</t>
         </is>
       </c>
+      <c r="E2" s="13" t="inlineStr">
+        <is>
+          <t>PAI7</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="10" t="n">
@@ -610,6 +620,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="10" t="n">
@@ -626,6 +641,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -646,6 +662,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="10" t="n">
@@ -662,6 +683,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E6" s="10" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="n">
@@ -678,6 +700,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E7" s="10" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="10" t="n">
@@ -690,6 +713,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
+      <c r="E8" s="10" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="10" t="n">
@@ -710,6 +734,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="10" t="n">
@@ -722,6 +751,7 @@
       </c>
       <c r="C10" s="10" t="inlineStr"/>
       <c r="D10" s="15" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="10" t="n">
@@ -742,6 +772,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E11" s="10" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="10" t="n">
@@ -762,6 +793,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E12" s="10" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -778,6 +810,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="10" t="n">
@@ -798,6 +831,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E14" s="10" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="10" t="n">
@@ -818,6 +852,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E15" s="10" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -838,6 +873,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="10" t="n">
@@ -854,6 +894,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E17" s="10" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -870,6 +911,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="10" t="n">
@@ -886,6 +932,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="10" t="n">
@@ -906,6 +957,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="10" t="n">
@@ -926,6 +982,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E21" s="10" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="10" t="n">
@@ -938,6 +995,7 @@
       </c>
       <c r="C22" s="10" t="inlineStr"/>
       <c r="D22" s="15" t="inlineStr"/>
+      <c r="E22" s="10" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="10" t="n">
@@ -954,6 +1012,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E23" s="10" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="10" t="n">
@@ -970,6 +1029,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="10" t="n">
@@ -990,6 +1054,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="10" t="n">
@@ -1006,6 +1075,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E26" s="10" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="10" t="n">
@@ -1022,6 +1092,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E27" s="10" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="10" t="n">
@@ -1042,6 +1113,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E28" s="10" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="10" t="n">
@@ -1054,6 +1126,7 @@
       </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="15" t="inlineStr"/>
+      <c r="E29" s="10" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="10" t="n">
@@ -1074,6 +1147,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E30" s="10" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="10" t="n">
@@ -1094,6 +1168,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="10" t="n">
@@ -1110,6 +1189,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E32" s="10" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="10" t="n">
@@ -1130,6 +1210,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="10" t="n">
@@ -1146,6 +1231,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="10" t="n">
@@ -1166,6 +1256,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="10" t="n">
@@ -1182,6 +1277,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E36" s="10" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="10" t="n">
@@ -1198,6 +1294,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E37" s="10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -614,7 +614,11 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -641,7 +645,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr"/>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -700,7 +708,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="10" t="n">
@@ -713,7 +725,11 @@
       </c>
       <c r="C8" s="10" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
-      <c r="E8" s="10" t="inlineStr"/>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="10" t="n">
@@ -772,7 +788,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr"/>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="10" t="n">
@@ -804,13 +824,21 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr"/>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr"/>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="10" t="n">
@@ -831,7 +859,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="10" t="n">
@@ -852,7 +884,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr"/>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -982,7 +1018,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E21" s="10" t="inlineStr"/>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="10" t="n">
@@ -1012,7 +1052,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr"/>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="10" t="n">
@@ -1075,7 +1119,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr"/>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="10" t="n">
@@ -1113,7 +1161,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr"/>
+      <c r="E28" s="10" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="10" t="n">
@@ -1147,7 +1199,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr"/>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="10" t="n">
@@ -1277,7 +1333,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E36" s="10" t="inlineStr"/>
+      <c r="E36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="10" t="n">
@@ -1294,7 +1354,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E37" s="10" t="inlineStr"/>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -1134,13 +1134,21 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr"/>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="10" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -767,7 +767,11 @@
       </c>
       <c r="C10" s="10" t="inlineStr"/>
       <c r="D10" s="15" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr"/>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="10" t="n">
@@ -813,7 +817,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr"/>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -930,7 +938,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr"/>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -1033,9 +1045,17 @@
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr"/>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D22" s="15" t="inlineStr"/>
-      <c r="E22" s="10" t="inlineStr"/>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="10" t="n">
@@ -1186,7 +1206,11 @@
       </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="15" t="inlineStr"/>
-      <c r="E29" s="10" t="inlineStr"/>
+      <c r="E29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="10" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -639,7 +639,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -685,13 +689,21 @@
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr"/>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr"/>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="n">
@@ -702,7 +714,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -724,7 +740,11 @@
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr"/>
-      <c r="D8" s="15" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E8" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -953,7 +973,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr"/>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -1074,7 +1074,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr"/>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1111,7 +1115,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -171,13 +171,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -552,7 +552,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -560,6 +560,8 @@
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="8.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -1358,7 +1358,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -1408,7 +1408,11 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D36" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-7 (6 September 2021 - 12 September 2021).xlsx
@@ -957,7 +957,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
